--- a/biology/Botanique/Boergesenia_forbesii/Boergesenia_forbesii.xlsx
+++ b/biology/Botanique/Boergesenia_forbesii/Boergesenia_forbesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boergesenia forbesii est une espèce d'algues vertes marines de la famille des Siphonocladaceae. Elle forme des bouquets d'ampoules, longues chacune en général de quelques centimètres. 
 Elle est commune dans le bassin indo-pacifique, présente notamment dans les zones calmes d'arrière-récif.
-Elle héberge parfois un de ses prédateurs, la petite limace de mer de l'ordre des Sacoglossa, Ercolania kencolesi[1].
+Elle héberge parfois un de ses prédateurs, la petite limace de mer de l'ordre des Sacoglossa, Ercolania kencolesi.
 </t>
         </is>
       </c>
